--- a/biology/Histoire de la zoologie et de la botanique/Hipólito_Ruiz_López/Hipólito_Ruiz_López.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hipólito_Ruiz_López/Hipólito_Ruiz_López.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hip%C3%B3lito_Ruiz_L%C3%B3pez</t>
+          <t>Hipólito_Ruiz_López</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipólito Ruiz López (né le 8 août 1754 à Belorado, dans l'actuelle province de Burgos et mort en 1816 à Madrid) était un botaniste espagnol de la fin du XVIIIe et du début du XIXe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hip%C3%B3lito_Ruiz_L%C3%B3pez</t>
+          <t>Hipólito_Ruiz_López</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipólito Ruiz López est surtout connu pour sa recherche sur la flore du Pérou et du Chili durant une expédition sous Charles III de 1777 à 1788. Durant le règne de Charles III, trois expéditions majeures furent envoyées au Nouveau Monde ; Ruiz et José Antonio Pavón, accompagnés du naturaliste français Joseph Dombey furent les botanistes pour la première de ces expéditions, au Pérou et au Chili, de 1777 à 1788.
 Les plus de 3 000 exemplaires de plantes collectés lors de cette expédition sont maintenant au Real Jardín Botánico Herbario de Madrid.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hip%C3%B3lito_Ruiz_L%C3%B3pez</t>
+          <t>Hipólito_Ruiz_López</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>avec José Antonio Pavón - Flora Peruviana, et Chilensis, sive, Descriptiones et icones plantarum Peruvianarum, et Chilensium, secundum systema Linnaeanum digestae, cum characteribus plurium generum evulgatorum reformatis - 3 volumes et 2 tomes de planches - Madrid, 1798 - 1802
 avec José Antonio Pavón - Systema vegetabilium florae peruvianae et chilensis, characteres Prodromi genericos differentiales, specierum omnium differentias, durationem, loca natalia, tempus florendi, nomina venacula, vires et usus nonnullis illustrationibus interspersis complectens - Madrid, 1798</t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hip%C3%B3lito_Ruiz_L%C3%B3pez</t>
+          <t>Hipólito_Ruiz_López</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Arthur Robert Steele (1964). Flowers for the King: the Expedition of Ruiz and Pavon and the Flora of Peru, Duke University Press (Durham) : xv + 378 p.  (ISBN 1151809772)</t>
         </is>
